--- a/doc/New folder/0/Tasks.xlsx
+++ b/doc/New folder/0/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDriveMirror\UNI\Thesis\Files\doc\New folder\0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99514F6E-E206-4732-A2DD-2F95BE201E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE60C5B7-520E-47C1-9F96-E93A4632AA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Tasks</t>
   </si>
@@ -70,6 +70,30 @@
   </si>
   <si>
     <t>flagship</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>TinyLlama (1.1B)</t>
+  </si>
+  <si>
+    <t>Phi-2 (2.7B)</t>
+  </si>
+  <si>
+    <t>Mistral (7B)</t>
+  </si>
+  <si>
+    <t>LLaMA 3 (8B)</t>
+  </si>
+  <si>
+    <t>Gemma (2B/7B)</t>
+  </si>
+  <si>
+    <t>Qwen (1.8B)</t>
+  </si>
+  <si>
+    <t>Q4_K_M</t>
   </si>
 </sst>
 </file>
@@ -387,37 +411,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
@@ -435,28 +459,94 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
